--- a/todays_actions_needing_update.xlsx
+++ b/todays_actions_needing_update.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,504 +491,163 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Notes.1</t>
+          <t>Start Date</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Technology.1</t>
+          <t>Last Date</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Start Date</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Last Date</t>
+          <t>Day 1 Action 1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Day 1 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Day 1 Action 1</t>
+          <t>Day 1 Action 2</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Day 1 Action 1 Complete Date</t>
+          <t>Day 1 Action 2 Complete Date</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Day 1 Action 2</t>
+          <t>Day 4 Action 1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Day 1 Action 2 Complete Date</t>
+          <t>Day 4 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 1</t>
+          <t>Day 4 Action 2</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 1 Complete Date</t>
+          <t>Day 4 Action 2 Complete Date</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 2</t>
+          <t>Day 4 Action 3</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 2 Complete Date</t>
+          <t>Day 4 Action 3 Complete Date</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 3</t>
+          <t>Day 7 Action 1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 3 Complete Date</t>
+          <t>Day 7 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Day 7 Action 1</t>
+          <t>Day 7 Action 2</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Day 7 Action 1 Complete Date</t>
+          <t>Day 7 Action 2 Complete date</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Day 7 Action 2</t>
+          <t>Day 10 Action 1</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Day 7 Action 2 Complete date</t>
+          <t>Day 10 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Day 10 Action 1</t>
+          <t>Day 12 Action 1</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Day 10 Action 1 Complete Date</t>
+          <t>Day 12 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Day 12 Action 1</t>
+          <t>Day 14 Action 1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Day 12 Action 1 Complete Date</t>
+          <t>Day 14 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Day 14 Action 1</t>
+          <t>Day 14 Action 2</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Day 14 Action 1 Complete Date</t>
+          <t>Day 14 Action 2 Complete date</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Day 14 Action 2</t>
+          <t>Pause Trigger</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Day 14 Action 2 Complete date</t>
+          <t>Days Since Start</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Pause Trigger</t>
+          <t>Next Action Column</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Days Since Start</t>
+          <t>Next Action</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Next Action Column</t>
+          <t>Days Until Next Action</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Next Action</t>
+          <t>Last Action Date</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Days Until Next Action</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Last Action Date</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
           <t>Emails Sent Count</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Chief Financial Officer</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Iowa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>AMANA SOCIETY, INC.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>http://www.amanasociety.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Dan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Dyson</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>+1 319-622-7500</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>rritchie@colibriconnect.io</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>http://www.linkedin.com/in/dan-dyson-2212809</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Call</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Day 4 Action 1</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Vice President, Sales &amp; Marketing</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tilton Engineering</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>http://www.tiltonracing.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Kirk</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Skaufel</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>+1 805-688-2353</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>andre.copy@outlook.com</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>http://www.linkedin.com/in/kirk-skaufel-83077646</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" s="2" t="n">
-        <v>45739</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Day 1 Action 2</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="AS3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Vice President</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>South Carolina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>I&amp;M Industrials, Inc.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>http://www.iandmindustrials.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>fff</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>fff</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>+1 864-277-2450</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>davidandrealeman@outlook.com</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>http://www.linkedin.com/in/tracy-mardre-a5618814</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" s="2" t="n">
-        <v>45739</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Day 1 Action 2</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="AS4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
